--- a/ig/M-Priour-patch-1/StructureDefinition-pdsm-is-archived.xlsx
+++ b/ig/M-Priour-patch-1/StructureDefinition-pdsm-is-archived.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-03-23T15:17:15+00:00</t>
+    <t>2023-04-28T06:41:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
